--- a/res/pmp.xlsx
+++ b/res/pmp.xlsx
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>293666481.1811002</v>
+        <v>345171128.25587</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>357519194.0274898</v>
+        <v>344516763.1519175</v>
       </c>
     </row>
     <row r="4">
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>261594244.6389432</v>
+        <v>344454669.119568</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>302825024.5639102</v>
+        <v>335554405.6405879</v>
       </c>
     </row>
     <row r="6">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>402124130.6188732</v>
+        <v>353490698.0793062</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>259813926.9338819</v>
+        <v>334446464.794858</v>
       </c>
     </row>
     <row r="8">
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>319991076.4135138</v>
+        <v>354065162.7697619</v>
       </c>
     </row>
     <row r="9">
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>298079694.1508229</v>
+        <v>339413978.4340583</v>
       </c>
     </row>
     <row r="10">
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>296456301.2176462</v>
+        <v>358176023.4014293</v>
       </c>
     </row>
     <row r="11">
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>319315402.1390204</v>
+        <v>342764301.2556522</v>
       </c>
     </row>
     <row r="12">
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>351984602.4799519</v>
+        <v>363552236.9189321</v>
       </c>
     </row>
     <row r="13">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>394686395.7313724</v>
+        <v>342830308.0649477</v>
       </c>
     </row>
     <row r="14">
@@ -514,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>335695012.4498656</v>
+        <v>368163110.6455631</v>
       </c>
     </row>
     <row r="15">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>349383788.722259</v>
+        <v>345755323.7187073</v>
       </c>
     </row>
     <row r="16">
@@ -536,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>286314654.3209519</v>
+        <v>368514908.5995528</v>
       </c>
     </row>
     <row r="17">
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>277241992.9604854</v>
+        <v>352118669.204167</v>
       </c>
     </row>
     <row r="18">
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>253487072.6813913</v>
+        <v>371199801.1268438</v>
       </c>
     </row>
     <row r="19">
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>451629411.6586169</v>
+        <v>355252803.6217422</v>
       </c>
     </row>
     <row r="20">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>346848406.9560248</v>
+        <v>374003704.5722421</v>
       </c>
     </row>
     <row r="21">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>299311541.8572577</v>
+        <v>358240808.3475776</v>
       </c>
     </row>
     <row r="22">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>385684681.8073247</v>
+        <v>379203802.9634147</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>481739330.3245869</v>
+        <v>362152076.5329933</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>340128653.7659789</v>
+        <v>379955527.3267485</v>
       </c>
     </row>
     <row r="25">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>371109948.8382772</v>
+        <v>357284874.913474</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>473055284.0558724</v>
+        <v>387677962.173601</v>
       </c>
     </row>
     <row r="27">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>277668403.8474494</v>
+        <v>364705709.2741042</v>
       </c>
     </row>
     <row r="28">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>299679016.8452569</v>
+        <v>387747131.8366524</v>
       </c>
     </row>
     <row r="29">
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>317729397.6851986</v>
+        <v>368630618.5611199</v>
       </c>
     </row>
     <row r="30">
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>542547355.0777991</v>
+        <v>392985369.7802371</v>
       </c>
     </row>
     <row r="31">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>299501470.4914569</v>
+        <v>371220318.2024745</v>
       </c>
     </row>
     <row r="32">
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>348140412.0985988</v>
+        <v>392223996.6517835</v>
       </c>
     </row>
     <row r="33">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>287111937.9452914</v>
+        <v>373352728.0118762</v>
       </c>
     </row>
     <row r="34">
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>380898059.8969004</v>
+        <v>402506481.9012829</v>
       </c>
     </row>
     <row r="35">
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>317530099.168152</v>
+        <v>375552736.8968963</v>
       </c>
     </row>
     <row r="36">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>445860742.8846413</v>
+        <v>401270899.7064263</v>
       </c>
     </row>
     <row r="37">
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>386674942.4316067</v>
+        <v>380985593.8021222</v>
       </c>
     </row>
     <row r="38">
@@ -778,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>374169030.7313603</v>
+        <v>407529115.7573928</v>
       </c>
     </row>
     <row r="39">
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>386904592.7812091</v>
+        <v>385376878.9480732</v>
       </c>
     </row>
     <row r="40">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>402841545.9506359</v>
+        <v>410789381.9742285</v>
       </c>
     </row>
     <row r="41">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>350227330.5190636</v>
+        <v>387641679.512894</v>
       </c>
     </row>
     <row r="42">
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>428066477.5755486</v>
+        <v>416165759.7865216</v>
       </c>
     </row>
     <row r="43">
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>247502240.3699225</v>
+        <v>388291618.7167676</v>
       </c>
     </row>
     <row r="44">
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>501516337.0452946</v>
+        <v>420926305.6889563</v>
       </c>
     </row>
     <row r="45">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>359562729.6157399</v>
+        <v>390106530.8864004</v>
       </c>
     </row>
     <row r="46">
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>416503572.3175189</v>
+        <v>418487886.2210053</v>
       </c>
     </row>
     <row r="47">
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>344266529.9737853</v>
+        <v>393683810.2343435</v>
       </c>
     </row>
     <row r="48">
@@ -888,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>347039738.1608313</v>
+        <v>420618040.6036645</v>
       </c>
     </row>
     <row r="49">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>487267275.2186978</v>
+        <v>396964415.6683682</v>
       </c>
     </row>
     <row r="50">
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>357487733.8606788</v>
+        <v>424209322.9554212</v>
       </c>
     </row>
     <row r="51">
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>376959719.0446503</v>
+        <v>401138640.6813887</v>
       </c>
     </row>
     <row r="52">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>325382748.1122023</v>
+        <v>426357269.5814582</v>
       </c>
     </row>
     <row r="53">
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>294101053.2150248</v>
+        <v>401594130.4928682</v>
       </c>
     </row>
     <row r="54">
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>462687056.9289099</v>
+        <v>432212136.6004231</v>
       </c>
     </row>
     <row r="55">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>405284390.4568174</v>
+        <v>400249442.1573985</v>
       </c>
     </row>
     <row r="56">
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>461199868.1806574</v>
+        <v>435543565.9470242</v>
       </c>
     </row>
     <row r="57">
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>446477677.1869594</v>
+        <v>406420692.561123</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>495426890.2225959</v>
+        <v>438788574.4207271</v>
       </c>
     </row>
     <row r="59">
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>468713316.4186254</v>
+        <v>400702501.3419428</v>
       </c>
     </row>
     <row r="60">
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>515485635.763613</v>
+        <v>443348284.9952375</v>
       </c>
     </row>
     <row r="61">
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>376996584.371896</v>
+        <v>403767564.121675</v>
       </c>
     </row>
     <row r="62">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>387429242.6095337</v>
+        <v>441478691.7065252</v>
       </c>
     </row>
     <row r="63">
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>411030895.8290457</v>
+        <v>404591540.4542039</v>
       </c>
     </row>
     <row r="64">
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>434927354.4041376</v>
+        <v>443226172.973159</v>
       </c>
     </row>
     <row r="65">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>396261879.2880261</v>
+        <v>405165685.777872</v>
       </c>
     </row>
     <row r="66">
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>476754987.6061805</v>
+        <v>445092744.6080807</v>
       </c>
     </row>
     <row r="67">
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>430171647.6105019</v>
+        <v>405685172.1355047</v>
       </c>
     </row>
     <row r="68">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>338305424.4555213</v>
+        <v>448310531.1902374</v>
       </c>
     </row>
     <row r="69">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>339476246.2147217</v>
+        <v>406658857.9390641</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>400845644.51785</v>
+        <v>443758641.7982742</v>
       </c>
     </row>
     <row r="71">
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>485747481.2981746</v>
+        <v>406294647.7562494</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>392834845.0668513</v>
+        <v>451548539.0318706</v>
       </c>
     </row>
     <row r="73">
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>304550692.5976656</v>
+        <v>400796687.9260455</v>
       </c>
     </row>
     <row r="74">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>474940687.5642769</v>
+        <v>446065811.2864951</v>
       </c>
     </row>
     <row r="75">
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>397219632.834326</v>
+        <v>400520894.3818212</v>
       </c>
     </row>
     <row r="76">
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>419086119.9415576</v>
+        <v>450547598.2695071</v>
       </c>
     </row>
     <row r="77">
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>281189230.1214539</v>
+        <v>402483631.2287521</v>
       </c>
     </row>
     <row r="78">
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>458658571.0371078</v>
+        <v>450660142.5832119</v>
       </c>
     </row>
     <row r="79">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>451458378.1565049</v>
+        <v>398479371.7650067</v>
       </c>
     </row>
     <row r="80">
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>403634605.7530708</v>
+        <v>449679990.3090892</v>
       </c>
     </row>
     <row r="81">
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>374362741.2410798</v>
+        <v>397382253.3417665</v>
       </c>
     </row>
     <row r="82">
@@ -1262,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>377782041.6454074</v>
+        <v>447908609.6040928</v>
       </c>
     </row>
     <row r="83">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>372990028.4622158</v>
+        <v>395022166.1072125</v>
       </c>
     </row>
     <row r="84">
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>457105462.8697996</v>
+        <v>446653676.8577733</v>
       </c>
     </row>
     <row r="85">
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>386242729.8732052</v>
+        <v>390555151.2758815</v>
       </c>
     </row>
     <row r="86">
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>344837326.1620879</v>
+        <v>389864159.3830382</v>
       </c>
     </row>
     <row r="87">
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>440310878.9414958</v>
+        <v>444092129.4978795</v>
       </c>
     </row>
     <row r="88">
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>351985632.8548299</v>
+        <v>389111326.9826829</v>
       </c>
     </row>
     <row r="89">
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>465692445.2367693</v>
+        <v>444548581.9126332</v>
       </c>
     </row>
     <row r="90">
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>329029506.6953871</v>
+        <v>387188932.5993394</v>
       </c>
     </row>
   </sheetData>

--- a/res/pmp.xlsx
+++ b/res/pmp.xlsx
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>345171128.25587</v>
+        <v>310201437.5619223</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>344516763.1519175</v>
+        <v>317369631.5116886</v>
       </c>
     </row>
     <row r="4">
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>344454669.119568</v>
+        <v>317378637.2879491</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>335554405.6405879</v>
+        <v>299335052.7159193</v>
       </c>
     </row>
     <row r="6">
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>353490698.0793062</v>
+        <v>326976761.496359</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>334446464.794858</v>
+        <v>299321384.645102</v>
       </c>
     </row>
     <row r="8">
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>354065162.7697619</v>
+        <v>330328440.0799846</v>
       </c>
     </row>
     <row r="9">
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>339413978.4340583</v>
+        <v>307846192.7017168</v>
       </c>
     </row>
     <row r="10">
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>358176023.4014293</v>
+        <v>328755282.9902905</v>
       </c>
     </row>
     <row r="11">
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>342764301.2556522</v>
+        <v>306656460.3119646</v>
       </c>
     </row>
     <row r="12">
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>363552236.9189321</v>
+        <v>334923649.8992474</v>
       </c>
     </row>
     <row r="13">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>342830308.0649477</v>
+        <v>306706415.9664548</v>
       </c>
     </row>
     <row r="14">
@@ -514,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>368163110.6455631</v>
+        <v>334320552.6277434</v>
       </c>
     </row>
     <row r="15">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>345755323.7187073</v>
+        <v>307466741.7254011</v>
       </c>
     </row>
     <row r="16">
@@ -536,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>368514908.5995528</v>
+        <v>339488483.6727309</v>
       </c>
     </row>
     <row r="17">
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>352118669.204167</v>
+        <v>316799039.7011181</v>
       </c>
     </row>
     <row r="18">
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>371199801.1268438</v>
+        <v>339902398.8388799</v>
       </c>
     </row>
     <row r="19">
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>355252803.6217422</v>
+        <v>317184979.6175021</v>
       </c>
     </row>
     <row r="20">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>374003704.5722421</v>
+        <v>341888346.3474233</v>
       </c>
     </row>
     <row r="21">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>358240808.3475776</v>
+        <v>321123830.5948097</v>
       </c>
     </row>
     <row r="22">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>379203802.9634147</v>
+        <v>346154511.6024451</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>362152076.5329933</v>
+        <v>323881497.8887747</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>379955527.3267485</v>
+        <v>347664657.7179927</v>
       </c>
     </row>
     <row r="25">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>357284874.913474</v>
+        <v>328385608.4693914</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>387677962.173601</v>
+        <v>348695571.0360206</v>
       </c>
     </row>
     <row r="27">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>364705709.2741042</v>
+        <v>326675123.6997659</v>
       </c>
     </row>
     <row r="28">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>387747131.8366524</v>
+        <v>352149694.2041175</v>
       </c>
     </row>
     <row r="29">
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>368630618.5611199</v>
+        <v>328828995.4437707</v>
       </c>
     </row>
     <row r="30">
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>392985369.7802371</v>
+        <v>356351456.8106594</v>
       </c>
     </row>
     <row r="31">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>371220318.2024745</v>
+        <v>335117324.4512737</v>
       </c>
     </row>
     <row r="32">
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>392223996.6517835</v>
+        <v>360034041.470701</v>
       </c>
     </row>
     <row r="33">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>373352728.0118762</v>
+        <v>334289674.9740267</v>
       </c>
     </row>
     <row r="34">
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>402506481.9012829</v>
+        <v>364505093.8806564</v>
       </c>
     </row>
     <row r="35">
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>375552736.8968963</v>
+        <v>337856199.8540915</v>
       </c>
     </row>
     <row r="36">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>401270899.7064263</v>
+        <v>366620645.8957695</v>
       </c>
     </row>
     <row r="37">
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>380985593.8021222</v>
+        <v>340845550.3981383</v>
       </c>
     </row>
     <row r="38">
@@ -778,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>407529115.7573928</v>
+        <v>368823588.4455714</v>
       </c>
     </row>
     <row r="39">
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>385376878.9480732</v>
+        <v>342674534.6789747</v>
       </c>
     </row>
     <row r="40">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>410789381.9742285</v>
+        <v>372962341.7689098</v>
       </c>
     </row>
     <row r="41">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>387641679.512894</v>
+        <v>345351456.0820938</v>
       </c>
     </row>
     <row r="42">
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>416165759.7865216</v>
+        <v>373424098.9651356</v>
       </c>
     </row>
     <row r="43">
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>388291618.7167676</v>
+        <v>345883670.4725264</v>
       </c>
     </row>
     <row r="44">
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>420926305.6889563</v>
+        <v>379864970.9745684</v>
       </c>
     </row>
     <row r="45">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>390106530.8864004</v>
+        <v>342629096.4860923</v>
       </c>
     </row>
     <row r="46">
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>418487886.2210053</v>
+        <v>381929060.4961978</v>
       </c>
     </row>
     <row r="47">
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>393683810.2343435</v>
+        <v>348903087.3057371</v>
       </c>
     </row>
     <row r="48">
@@ -888,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>420618040.6036645</v>
+        <v>386695355.5023984</v>
       </c>
     </row>
     <row r="49">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>396964415.6683682</v>
+        <v>353163115.9466481</v>
       </c>
     </row>
     <row r="50">
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>424209322.9554212</v>
+        <v>383862790.2735964</v>
       </c>
     </row>
     <row r="51">
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>401138640.6813887</v>
+        <v>349797683.7157896</v>
       </c>
     </row>
     <row r="52">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>426357269.5814582</v>
+        <v>388931280.8072598</v>
       </c>
     </row>
     <row r="53">
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>401594130.4928682</v>
+        <v>355557077.4175695</v>
       </c>
     </row>
     <row r="54">
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>432212136.6004231</v>
+        <v>391965625.0608116</v>
       </c>
     </row>
     <row r="55">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>400249442.1573985</v>
+        <v>350894922.494687</v>
       </c>
     </row>
     <row r="56">
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>435543565.9470242</v>
+        <v>390058782.018853</v>
       </c>
     </row>
     <row r="57">
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>406420692.561123</v>
+        <v>353207228.7041585</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>438788574.4207271</v>
+        <v>391101103.5512016</v>
       </c>
     </row>
     <row r="59">
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>400702501.3419428</v>
+        <v>354974662.2784317</v>
       </c>
     </row>
     <row r="60">
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>443348284.9952375</v>
+        <v>395403985.2491053</v>
       </c>
     </row>
     <row r="61">
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>403767564.121675</v>
+        <v>357497354.5194198</v>
       </c>
     </row>
     <row r="62">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>441478691.7065252</v>
+        <v>397743197.7555172</v>
       </c>
     </row>
     <row r="63">
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>404591540.4542039</v>
+        <v>353013045.4253036</v>
       </c>
     </row>
     <row r="64">
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>443226172.973159</v>
+        <v>396633791.8555577</v>
       </c>
     </row>
     <row r="65">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>405165685.777872</v>
+        <v>353369976.6790786</v>
       </c>
     </row>
     <row r="66">
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>445092744.6080807</v>
+        <v>400839927.0313616</v>
       </c>
     </row>
     <row r="67">
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>405685172.1355047</v>
+        <v>357270993.7295025</v>
       </c>
     </row>
     <row r="68">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>448310531.1902374</v>
+        <v>399217985.0096482</v>
       </c>
     </row>
     <row r="69">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>406658857.9390641</v>
+        <v>358693834.4356568</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>443758641.7982742</v>
+        <v>400691666.3775488</v>
       </c>
     </row>
     <row r="71">
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>406294647.7562494</v>
+        <v>354405269.115067</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>451548539.0318706</v>
+        <v>398185751.6433784</v>
       </c>
     </row>
     <row r="73">
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>400796687.9260455</v>
+        <v>350374862.7810009</v>
       </c>
     </row>
     <row r="74">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>446065811.2864951</v>
+        <v>400620080.1564007</v>
       </c>
     </row>
     <row r="75">
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>400520894.3818212</v>
+        <v>353497535.9470798</v>
       </c>
     </row>
     <row r="76">
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>450547598.2695071</v>
+        <v>399029868.3206564</v>
       </c>
     </row>
     <row r="77">
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>402483631.2287521</v>
+        <v>353015539.7726842</v>
       </c>
     </row>
     <row r="78">
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>450660142.5832119</v>
+        <v>402239722.9425219</v>
       </c>
     </row>
     <row r="79">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>398479371.7650067</v>
+        <v>348226764.8951703</v>
       </c>
     </row>
     <row r="80">
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>449679990.3090892</v>
+        <v>395892115.8539951</v>
       </c>
     </row>
     <row r="81">
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>397382253.3417665</v>
+        <v>342273566.9705331</v>
       </c>
     </row>
     <row r="82">
@@ -1262,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>447908609.6040928</v>
+        <v>399095379.4550222</v>
       </c>
     </row>
     <row r="83">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>395022166.1072125</v>
+        <v>345271309.3122777</v>
       </c>
     </row>
     <row r="84">
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>446653676.8577733</v>
+        <v>399103116.9931895</v>
       </c>
     </row>
     <row r="85">
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>390555151.2758815</v>
+        <v>340449848.5609787</v>
       </c>
     </row>
     <row r="86">
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>389864159.3830382</v>
+        <v>336204692.0222488</v>
       </c>
     </row>
     <row r="87">
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>444092129.4978795</v>
+        <v>393951939.2306573</v>
       </c>
     </row>
     <row r="88">
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>389111326.9826829</v>
+        <v>336462158.6800092</v>
       </c>
     </row>
     <row r="89">
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>444548581.9126332</v>
+        <v>393034599.3164414</v>
       </c>
     </row>
     <row r="90">
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>387188932.5993394</v>
+        <v>336193543.8094214</v>
       </c>
     </row>
   </sheetData>
